--- a/data/trans_dic/P04D$colectiva-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P04D$colectiva-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 9,69</t>
+          <t>4,42; 9,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,08; 10,7</t>
+          <t>5,16; 10,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,48; 16,72</t>
+          <t>10,64; 16,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,8</t>
+          <t>3,12; 8,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,63; 9,28</t>
+          <t>3,71; 8,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,6; 16,89</t>
+          <t>11,31; 17,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,86</t>
+          <t>4,56; 8,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,96</t>
+          <t>5,29; 8,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,94; 16,13</t>
+          <t>11,75; 15,82</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,43</t>
+          <t>1,63; 5,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 7,28</t>
+          <t>2,77; 7,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,86</t>
+          <t>4,37; 8,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,12</t>
+          <t>1,87; 5,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,19</t>
+          <t>2,07; 6,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,67</t>
+          <t>4,45; 8,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,77</t>
+          <t>2,23; 4,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,78</t>
+          <t>2,82; 5,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 7,93</t>
+          <t>4,91; 7,93</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,31</t>
+          <t>1,08; 3,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,62</t>
+          <t>1,12; 3,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,69</t>
+          <t>1,27; 6,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 7,02</t>
+          <t>1,59; 7,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,64</t>
+          <t>0,53; 4,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,47; 11,97</t>
+          <t>4,67; 11,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,8</t>
+          <t>1,57; 3,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,22</t>
+          <t>1,1; 3,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 7,0</t>
+          <t>1,54; 7,0</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,08</t>
+          <t>1,95; 3,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,75</t>
+          <t>0,59; 1,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,83</t>
+          <t>3,09; 5,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,86</t>
+          <t>1,41; 3,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,23</t>
+          <t>0,68; 2,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 6,52</t>
+          <t>2,44; 6,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,46</t>
+          <t>1,98; 3,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,65</t>
+          <t>0,78; 1,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,55</t>
+          <t>3,13; 5,52</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,19</t>
+          <t>0,8; 3,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,2</t>
+          <t>0,42; 2,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,48</t>
+          <t>1,43; 4,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,22</t>
+          <t>0,95; 3,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,85</t>
+          <t>0,81; 2,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,88</t>
+          <t>1,89; 3,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,74</t>
+          <t>1,12; 2,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,15</t>
+          <t>0,78; 2,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,66</t>
+          <t>1,96; 3,6</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,23; 7,62</t>
+          <t>2,31; 7,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,24; 8,44</t>
+          <t>3,04; 8,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,75; 16,95</t>
+          <t>4,33; 17,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,54</t>
+          <t>1,59; 3,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,68</t>
+          <t>1,64; 3,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,84; 7,06</t>
+          <t>3,82; 7,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,74</t>
+          <t>1,9; 3,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,15</t>
+          <t>2,18; 4,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,01</t>
+          <t>4,47; 8,37</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,81</t>
+          <t>2,62; 3,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,22; 3,41</t>
+          <t>2,27; 3,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,54; 6,84</t>
+          <t>4,52; 6,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,32</t>
+          <t>2,16; 3,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,08</t>
+          <t>2,0; 3,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,56; 6,59</t>
+          <t>4,64; 6,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,37</t>
+          <t>2,53; 3,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,01</t>
+          <t>2,26; 3,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,0; 6,59</t>
+          <t>5,02; 6,56</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, tiene calefacción colectiva en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28733</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>33246</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>67546</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16814</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20510</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>62889</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>45547</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>53756</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>130435</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>19332; 41034</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22132; 45977</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>53632; 84275</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9801; 26146</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12872; 30782</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>50435; 77576</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34300; 60404</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>41053; 69523</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>111703; 150339</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13045</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17470</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>27958</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12007</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13906</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>24120</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>25053</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31377</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>52078</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6801; 22468</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10447; 27180</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>19746; 39506</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6309; 19135</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7699; 23967</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17040; 32834</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16817; 37281</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>21139; 43956</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>40983; 66160</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12492</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10933</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24748</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9098</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2801</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12354</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21590</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13734</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>37102</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6776; 22214</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5858; 18432</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8441; 42913</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4140; 18551</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>880; 7318</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7711; 19231</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13929; 32042</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7559; 22171</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12819; 58236</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>32721</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12048</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>44281</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17810</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10690</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>45349</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>50531</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>22739</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>89631</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>22585; 45961</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6778; 20322</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>31841; 61084</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10813; 28685</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5636; 18140</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>23817; 62384</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>37990; 66858</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>15444; 33482</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>62871; 110947</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9090</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6221</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12509</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>13500</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12339</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>23292</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22589</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18560</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>35800</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4064; 16513</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2627; 13441</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6772; 21892</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7198; 23181</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5987; 20134</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>15842; 32332</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>14153; 34678</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10538; 28609</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>25780; 47347</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>11449</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>15086</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>20637</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>26347</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>26688</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>39136</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>37796</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>41773</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>59773</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6156; 20004</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8717; 23481</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>10405; 42695</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>17636; 36980</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>17751; 40079</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>28995; 53671</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>26073; 51586</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>29846; 58067</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>44718; 83710</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>107529</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>95006</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>197679</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>95576</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>86933</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>207140</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>203105</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>181939</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>404819</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>89332; 127049</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>76866; 116107</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>152226; 234567</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>76420; 118156</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>70459; 107268</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>165780; 235354</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>175867; 232546</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>156464; 212920</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>348209; 454978</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P04D$colectiva-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P04D$colectiva-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
